--- a/doc/01_勉強会まとめ資料/99_レビュー/01_勉強会まとめ資料/【4月】第一回勉強会/【レビュー表】スマホアプリの作成.xlsx
+++ b/doc/01_勉強会まとめ資料/99_レビュー/01_勉強会まとめ資料/【4月】第一回勉強会/【レビュー表】スマホアプリの作成.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshiki\git\diary\doc\01_勉強会まとめ資料\【4月】第一回勉強会\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{782E8A5A-A6B3-4347-8D6C-852C6AA3A56F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C3530AF1-610E-4335-BA35-E334D01044AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">レビュー表!$A$1:$J$35</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -292,26 +289,6 @@
     <t>サブタイトルを入力</t>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要なら記載すること。
-不要な場合、削除すること。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,12 +1037,141 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>三井</t>
+    <rPh sb="0" eb="2">
+      <t>ミツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次の追加</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人的に目次を追加してほしいです。
+（まだ項目が足りていないため、次回辺りから追加でいいと思います。）</t>
+    <rPh sb="0" eb="3">
+      <t>コジンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">必要なら記載すること。
+不要な場合、削除すること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018/5/15　三井追記
+表紙に関するページなので、サブタイトルには会社名を記載するべきかと。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認者</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善確認</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,6 +1199,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1168,21 +1282,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1195,6 +1297,24 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1502,574 +1622,738 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157EB7AE-82B7-4FF3-9B14-CA4CFBD01512}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.75" customWidth="1"/>
-    <col min="5" max="6" width="7.5" customWidth="1"/>
+    <col min="5" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="H3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
         <v>43234</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
         <v>43234</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4">
         <v>43234</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4">
         <v>43234</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="G23" s="3"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
         <v>43234</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
         <v>43234</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
         <v>43234</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43234</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
         <v>43234</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="140.25" customHeight="1">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43235</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
-        <v>17</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6">
-        <v>17</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
-        <v>18</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
-        <v>19</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="8">
-        <v>43234</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/01_勉強会まとめ資料/99_レビュー/01_勉強会まとめ資料/【4月】第一回勉強会/【レビュー表】スマホアプリの作成.xlsx
+++ b/doc/01_勉強会まとめ資料/99_レビュー/01_勉強会まとめ資料/【4月】第一回勉強会/【レビュー表】スマホアプリの作成.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1166,11 +1166,119 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2～3ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載内容</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書かれている内容が概要というより導入になっている。概要であるなら「このパワポは何のために作成したか」「何を目的としているか」「目的の為に何をするか(今回の場合は日記アプリ作成)」を記載した方がよい。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ニッキ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該項番№13の指摘と類似しますが、「開発するアプリケーションのベースは日記アプリを開発する。」「日記アプリを作成していく過程で取捨選択を行う。」は前提条件ではなく概要となっている。</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1282,7 +1390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,6 +1423,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1428,7 +1542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1622,21 +1736,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -2274,28 +2391,48 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1">
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43235</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1">
+    <row r="31" spans="1:9" ht="56.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43235</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>

--- a/doc/01_勉強会まとめ資料/99_レビュー/01_勉強会まとめ資料/【4月】第一回勉強会/【レビュー表】スマホアプリの作成.xlsx
+++ b/doc/01_勉強会まとめ資料/99_レビュー/01_勉強会まとめ資料/【4月】第一回勉強会/【レビュー表】スマホアプリの作成.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,7 +10,7 @@
     <sheet name="レビュー表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">レビュー表!$A$1:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">レビュー表!$A$1:$J$45</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1181,7 +1181,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書かれている内容が概要というより導入になっている。概要であるなら「このパワポは何のために作成したか」「何を目的としているか」「目的の為に何をするか(今回の場合は日記アプリ作成)」を記載した方がよい。</t>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三井</t>
+    <rPh sb="0" eb="2">
+      <t>ミツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤記</t>
+    <rPh sb="0" eb="2">
+      <t>ゴキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">書かれている内容が概要というより導入になっている。概要であるなら「このパワポは何のために作成したか」「何を目的としているか」「目的の為に何をするか(今回の場合は日記アプリ作成)」を記載した方がよい。
+</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
     </rPh>
@@ -1239,18 +1269,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石田</t>
-    <rPh sb="0" eb="2">
-      <t>イシダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4ページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当該項番№13の指摘と類似しますが、「開発するアプリケーションのベースは日記アプリを開発する。」「日記アプリを作成していく過程で取捨選択を行う。」は前提条件ではなく概要となっている。</t>
+    <t xml:space="preserve">当該項番№13の指摘と類似しますが、「開発するアプリケーションのベースは日記アプリを開発する。」「日記アプリを作成していく過程で取捨選択を行う。」は前提条件ではなく概要となっている。
+</t>
     <rPh sb="0" eb="2">
       <t>トウガイ</t>
     </rPh>
@@ -1271,6 +1291,116 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>下記の誤記を修正してください。
+誤...開発言語に「JAVA」を私用
+正...開発言語に「JAVA」を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全般</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文言の統一性</t>
+    <rPh sb="0" eb="2">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人的にですが「IOS」や「ANDROID」、「JAVASCRIPT」などの大文字での表現に違和感があります。
+また、スライドによって「JAVASCRIPT」だったり「JavaScript」だったりでバラバラで表現されているので、表現を統一したほうが他人が読みやすい形になると思います。</t>
+    <rPh sb="0" eb="3">
+      <t>コジンテキ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1278,7 +1408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1409,6 +1539,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1423,12 +1559,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1736,15 +1866,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1753,7 +1883,7 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -1765,50 +1895,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1" t="s">
         <v>70</v>
       </c>
@@ -2391,21 +2521,21 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="75">
+    <row r="30" spans="1:9" ht="66.75" customHeight="1">
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="F30" s="4">
         <v>43235</v>
@@ -2414,21 +2544,21 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="56.25">
+    <row r="31" spans="1:9" ht="66.75" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>75</v>
+      <c r="D31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F31" s="4">
         <v>43235</v>
@@ -2437,28 +2567,48 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1">
+    <row r="32" spans="1:9" ht="66.75" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43235</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1">
+    <row r="33" spans="1:9" ht="90" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43235</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2475,6 +2625,136 @@
       <c r="G34" s="3"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" customHeight="1">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1">
+      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="30" customHeight="1">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="30" customHeight="1">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" customHeight="1">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" customHeight="1">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" customHeight="1">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
